--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="143">
   <si>
     <t>Name</t>
   </si>
@@ -241,9 +241,6 @@
     <t>Name of the folders that will be created in shared folder. Use process (long) name</t>
   </si>
   <si>
-    <t xml:space="preserve">"BasePathName" + "EndpointPathName" will be joined. </t>
-  </si>
-  <si>
     <t>InputPath</t>
   </si>
   <si>
@@ -307,9 +304,6 @@
     <t>MailProcessNickName</t>
   </si>
   <si>
-    <t>Dora</t>
-  </si>
-  <si>
     <t>PRN</t>
   </si>
   <si>
@@ -319,9 +313,6 @@
     <t>Name that will be sent on emails</t>
   </si>
   <si>
-    <t>ConstantesTemplatesMail</t>
-  </si>
-  <si>
     <t>MailCountry</t>
   </si>
   <si>
@@ -346,101 +337,151 @@
     <t>ProcessModule</t>
   </si>
   <si>
+    <t>Colector/Consumidor</t>
+  </si>
+  <si>
+    <t>MailContactLanguage</t>
+  </si>
+  <si>
+    <t>es-ES</t>
+  </si>
+  <si>
+    <t>MailTO_All</t>
+  </si>
+  <si>
+    <t>MailCC_All</t>
+  </si>
+  <si>
+    <t>MailBCC_All</t>
+  </si>
+  <si>
+    <t>MailTO_Exceptions</t>
+  </si>
+  <si>
+    <t>MailCC_Exceptions</t>
+  </si>
+  <si>
+    <t>MailBCC_Exceptions</t>
+  </si>
+  <si>
+    <t>CAMBIAR</t>
+  </si>
+  <si>
+    <t>SendMail</t>
+  </si>
+  <si>
+    <t>QueueNameNextStep</t>
+  </si>
+  <si>
+    <t>ItemTableNextStep</t>
+  </si>
+  <si>
+    <t>Name of the "main" Database table for the next step</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Orchestrator queue Name for the Next step. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Leave empty i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>f this is the final step last "consumidor"). The value must match with the queue name defined on Orchestrator.</t>
+    </r>
+  </si>
+  <si>
+    <t>NO CAMBIAR</t>
+  </si>
+  <si>
+    <t>ConstantesCarpetas</t>
+  </si>
+  <si>
+    <t>RPA_DBConnectionString</t>
+  </si>
+  <si>
+    <t>RPA_SharedFolder_Base</t>
+  </si>
+  <si>
+    <t>RPA_SMTPHost</t>
+  </si>
+  <si>
+    <t>RPA_SMTPPort</t>
+  </si>
+  <si>
+    <t>NoReply</t>
+  </si>
+  <si>
+    <t>UseDB</t>
+  </si>
+  <si>
+    <t>Use auxiliary database for error codes and item data</t>
+  </si>
+  <si>
+    <t>UseDataServiceErrors</t>
+  </si>
+  <si>
+    <t>UseDataServiceItem</t>
+  </si>
+  <si>
+    <t>Use Data service for item data</t>
+  </si>
+  <si>
+    <t>Use Data service for error codes</t>
+  </si>
+  <si>
+    <t>ExceptionLanguage</t>
+  </si>
+  <si>
+    <t>EnforceSecondDataSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If set to true, framework will attempt to get data from relevant data source (DB/Data Service). If data doesn't exist, an exception will be htrown . If false, it will not try to retrieve data from data source </t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Windows(\)</t>
+  </si>
+  <si>
+    <t>Unix(/)</t>
+  </si>
+  <si>
+    <t>Add failed items to next queue already as failed</t>
+  </si>
+  <si>
+    <t>AddFailedItem</t>
+  </si>
+  <si>
     <t>LastReportingTime</t>
   </si>
   <si>
-    <t>Last Reporting time in "o" format</t>
-  </si>
-  <si>
-    <t>TemplateReport</t>
-  </si>
-  <si>
-    <t>Data\Template_Report.xlsx</t>
-  </si>
-  <si>
-    <t>SheetDetails</t>
-  </si>
-  <si>
-    <t>SheetSummary</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>JCV_LastReportingDate</t>
-  </si>
-  <si>
-    <t>Detalle</t>
-  </si>
-  <si>
-    <t>MailBody</t>
-  </si>
-  <si>
-    <t>Adjunto se encuentra el reporte operativo del proceso.</t>
-  </si>
-  <si>
-    <t>Always keep a {0} in the file name to add the date</t>
-  </si>
-  <si>
-    <t>ReportName</t>
-  </si>
-  <si>
-    <t>Reporte{0}.xlsx</t>
-  </si>
-  <si>
-    <t>Reporter</t>
+    <t>JCV_LastReportingTime</t>
+  </si>
+  <si>
+    <t>Name of the last reporting time asset</t>
   </si>
   <si>
     <t>LastReportTimeAssetName</t>
-  </si>
-  <si>
-    <t>MailTO_All</t>
-  </si>
-  <si>
-    <t>MailCC_All</t>
-  </si>
-  <si>
-    <t>MailBCC_All</t>
-  </si>
-  <si>
-    <t>MailTO_Exceptions</t>
-  </si>
-  <si>
-    <t>MailCC_Exceptions</t>
-  </si>
-  <si>
-    <t>MailBCC_Exceptions</t>
-  </si>
-  <si>
-    <t>MailContactLanguage</t>
-  </si>
-  <si>
-    <t>es-ES</t>
-  </si>
-  <si>
-    <t>SendMail</t>
-  </si>
-  <si>
-    <t>RPA_DBConnectionString</t>
-  </si>
-  <si>
-    <t>RPA_SMTPHost</t>
-  </si>
-  <si>
-    <t>RPA_SMTPPort</t>
-  </si>
-  <si>
-    <t>RPA_SharedFolder_Base</t>
-  </si>
-  <si>
-    <t>NoReply</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -468,6 +509,12 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -826,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C999"/>
+  <dimension ref="A1:Z1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -837,9 +884,10 @@
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,212 +897,266 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="45">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" t="s">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="30">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:26">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
         <v>105</v>
       </c>
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="C16" s="4"/>
+    </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>104</v>
+        <v>85</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" t="s">
-        <v>124</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>125</v>
+      <c r="A20" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" t="s">
-        <v>125</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" t="s">
-        <v>129</v>
+        <v>109</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" t="s">
-        <v>116</v>
+      <c r="A24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" t="b">
+        <v>111</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2022,6 +2124,19 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
+    <row r="1004" ht="14.25" customHeight="1"/>
+    <row r="1005" ht="14.25" customHeight="1"/>
+    <row r="1006" ht="14.25" customHeight="1"/>
+    <row r="1007" ht="14.25" customHeight="1"/>
+    <row r="1008" ht="14.25" customHeight="1"/>
+    <row r="1009" ht="14.25" customHeight="1"/>
+    <row r="1010" ht="14.25" customHeight="1"/>
+    <row r="1011" ht="14.25" customHeight="1"/>
+    <row r="1012" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2031,9 +2146,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z950"/>
+  <dimension ref="A1:Z951"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -2095,7 +2210,7 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>40</v>
@@ -2216,7 +2331,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
         <v>56</v>
@@ -2264,18 +2386,18 @@
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>48</v>
@@ -2286,46 +2408,46 @@
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -2340,74 +2462,73 @@
     </row>
     <row r="35" spans="1:3" s="6" customFormat="1" ht="14.25" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="6" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A42" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3316,6 +3437,7 @@
     <row r="948" ht="14.25" customHeight="1"/>
     <row r="949" ht="14.25" customHeight="1"/>
     <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3328,7 +3450,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3377,10 +3499,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -3394,7 +3516,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -3405,7 +3527,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -3413,13 +3535,13 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4427,7 +4549,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4479,7 +4601,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -4490,7 +4612,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -5500,20 +5622,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="27" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" spans="1:27" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5524,9 +5647,11 @@
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -5548,28 +5673,34 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="D2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="14.25" customHeight="1">
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="14.25" customHeight="1">
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:27" ht="14.25" customHeight="1">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:27" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -6552,8 +6683,12 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"Windows(\),Unix(/)"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -475,6 +475,12 @@
   </si>
   <si>
     <t>LastReportTimeAssetName</t>
+  </si>
+  <si>
+    <t>ErrorCodePath</t>
+  </si>
+  <si>
+    <t>Data\ErrorCodes.xlsx</t>
   </si>
 </sst>
 </file>
@@ -875,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1157,22 +1163,29 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="148">
   <si>
     <t>Name</t>
   </si>
@@ -298,27 +298,12 @@
     <t>MailProcessFullName</t>
   </si>
   <si>
-    <t>MailProcessShortName</t>
-  </si>
-  <si>
-    <t>MailProcessNickName</t>
-  </si>
-  <si>
-    <t>PRN</t>
-  </si>
-  <si>
     <t>MailSenderName</t>
   </si>
   <si>
     <t>Name that will be sent on emails</t>
   </si>
   <si>
-    <t>MailCountry</t>
-  </si>
-  <si>
-    <t>España</t>
-  </si>
-  <si>
     <t>ConstantesEnvioMail</t>
   </si>
   <si>
@@ -335,9 +320,6 @@
   </si>
   <si>
     <t>ProcessModule</t>
-  </si>
-  <si>
-    <t>Colector/Consumidor</t>
   </si>
   <si>
     <t>MailContactLanguage</t>
@@ -481,6 +463,33 @@
   </si>
   <si>
     <t>Data\ErrorCodes.xlsx</t>
+  </si>
+  <si>
+    <t>TemplateReport</t>
+  </si>
+  <si>
+    <t>Data\Template_Report.xlsx</t>
+  </si>
+  <si>
+    <t>ReportName</t>
+  </si>
+  <si>
+    <t>SheetDetails</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>SheetSummary</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Reporter</t>
+  </si>
+  <si>
+    <t>Reportname_{0}.xlsx</t>
   </si>
 </sst>
 </file>
@@ -879,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1012"/>
+  <dimension ref="A1:Z1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -940,22 +949,22 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="45">
@@ -967,215 +976,251 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="30">
-      <c r="A7" t="s">
+    <row r="6" spans="1:26">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="30">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>129</v>
-      </c>
+    <row r="13" spans="1:26">
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="C16" s="4"/>
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="C17" s="4"/>
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="8" t="s">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
         <v>102</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+      <c r="B28" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B29" t="s">
-        <v>105</v>
+      <c r="B29" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>105</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B31" s="8"/>
+    </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A33" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2150,6 +2195,11 @@
     <row r="1010" ht="14.25" customHeight="1"/>
     <row r="1011" ht="14.25" customHeight="1"/>
     <row r="1012" ht="14.25" customHeight="1"/>
+    <row r="1013" ht="14.25" customHeight="1"/>
+    <row r="1014" ht="14.25" customHeight="1"/>
+    <row r="1015" ht="14.25" customHeight="1"/>
+    <row r="1016" ht="14.25" customHeight="1"/>
+    <row r="1017" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2159,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z951"/>
+  <dimension ref="A1:Z948"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2346,10 +2396,10 @@
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:3" s="6" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
@@ -2475,10 +2525,10 @@
     </row>
     <row r="35" spans="1:3" s="6" customFormat="1" ht="14.25" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
@@ -2486,7 +2536,7 @@
         <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
         <v>88</v>
@@ -2497,50 +2547,23 @@
         <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" t="s">
-        <v>99</v>
-      </c>
-    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3448,9 +3471,6 @@
     <row r="946" ht="14.25" customHeight="1"/>
     <row r="947" ht="14.25" customHeight="1"/>
     <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3463,7 +3483,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3515,7 +3535,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -3529,7 +3549,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -3540,7 +3560,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -3548,13 +3568,13 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4614,7 +4634,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -5660,7 +5680,7 @@
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -5690,12 +5710,12 @@
     </row>
     <row r="2" spans="1:27" ht="14.25" customHeight="1">
       <c r="D2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="14.25" customHeight="1">
       <c r="D3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -166,9 +166,6 @@
     <t>DBConnectionString</t>
   </si>
   <si>
-    <t>CredMail</t>
-  </si>
-  <si>
     <t>Relative path (folder name) of shared folder for "input" files (downloaded files)</t>
   </si>
   <si>
@@ -185,12 +182,6 @@
   </si>
   <si>
     <t>Name of the "main" Database table</t>
-  </si>
-  <si>
-    <t>SMTPHost</t>
-  </si>
-  <si>
-    <t>SMTPPort</t>
   </si>
   <si>
     <t>ItemDataTable</t>
@@ -396,12 +387,6 @@
     <t>RPA_SharedFolder_Base</t>
   </si>
   <si>
-    <t>RPA_SMTPHost</t>
-  </si>
-  <si>
-    <t>RPA_SMTPPort</t>
-  </si>
-  <si>
     <t>NoReply</t>
   </si>
   <si>
@@ -490,6 +475,9 @@
   </si>
   <si>
     <t>Reportname_{0}.xlsx</t>
+  </si>
+  <si>
+    <t>NoReplyMail</t>
   </si>
 </sst>
 </file>
@@ -890,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -941,7 +929,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -949,22 +937,22 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="45">
@@ -983,37 +971,37 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C10" s="4"/>
     </row>
@@ -1023,7 +1011,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>22</v>
@@ -1035,73 +1023,73 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C20" s="4"/>
     </row>
@@ -1113,13 +1101,13 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -1129,51 +1117,51 @@
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
@@ -1181,44 +1169,44 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2211,7 +2199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z948"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -2396,121 +2384,121 @@
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:3" s="6" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -2525,40 +2513,40 @@
     </row>
     <row r="35" spans="1:3" s="6" customFormat="1" ht="14.25" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3480,10 +3468,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3532,51 +3520,31 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" t="s">
-        <v>135</v>
-      </c>
-    </row>
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4569,8 +4537,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4582,7 +4548,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4634,21 +4600,21 @@
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -5680,7 +5646,7 @@
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -5710,12 +5676,12 @@
     </row>
     <row r="2" spans="1:27" ht="14.25" customHeight="1">
       <c r="D2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="14.25" customHeight="1">
       <c r="D3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -478,6 +478,15 @@
   </si>
   <si>
     <t>NoReplyMail</t>
+  </si>
+  <si>
+    <t>MailBody</t>
+  </si>
+  <si>
+    <t>Modify as required</t>
+  </si>
+  <si>
+    <t>Adjuntamos reporte de ejecución</t>
   </si>
 </sst>
 </file>
@@ -876,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1017"/>
+  <dimension ref="A1:Z1018"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1165,51 +1174,61 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B31" s="8"/>
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A32" t="s">
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
         <v>94</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
-    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
         <v>104</v>
       </c>
-      <c r="B35" t="b">
+      <c r="B36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" t="s">
-        <v>129</v>
-      </c>
-    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A39" t="s">
         <v>132</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2188,6 +2207,7 @@
     <row r="1015" ht="14.25" customHeight="1"/>
     <row r="1016" ht="14.25" customHeight="1"/>
     <row r="1017" ht="14.25" customHeight="1"/>
+    <row r="1018" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
